--- a/data.xlsx
+++ b/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27518"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="44" documentId="11_1D89592AFBB871185A83E021132F6BDC7C30DD70" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{334EDC20-93AE-174C-8BE3-4AC05CB02273}"/>
   <bookViews>
-    <workbookView xWindow="-2520" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2520" yWindow="-21600" windowWidth="38400" windowHeight="21600" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suppliers" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,23 @@
     <sheet name="Sales" sheetId="6" r:id="rId5"/>
     <sheet name="Shipment" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -855,6 +871,9 @@
     <t>ProductName</t>
   </si>
   <si>
+    <t>QuantitySold</t>
+  </si>
+  <si>
     <t>ReorderLevel</t>
   </si>
   <si>
@@ -1558,9 +1577,6 @@
   </si>
   <si>
     <t>SalesID</t>
-  </si>
-  <si>
-    <t>QuantitySold</t>
   </si>
   <si>
     <t>TotalPrice</t>
@@ -3193,7 +3209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3239,10 +3255,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3536,17 +3548,17 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3566,7 +3578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3586,7 +3598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3606,7 +3618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -3626,7 +3638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3646,7 +3658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3666,7 +3678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -3686,7 +3698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -3706,7 +3718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -3726,7 +3738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -3746,7 +3758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -3766,7 +3778,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -3786,7 +3798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -3806,7 +3818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -3826,7 +3838,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -3846,7 +3858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -3866,7 +3878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -3886,7 +3898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -3906,7 +3918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -3926,7 +3938,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -3946,7 +3958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -3979,16 +3991,16 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -4005,7 +4017,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -4022,7 +4034,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -4039,7 +4051,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -4056,7 +4068,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -4073,7 +4085,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -4090,7 +4102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -4107,7 +4119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -4124,7 +4136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -4141,7 +4153,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -4158,7 +4170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -4175,7 +4187,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -4192,7 +4204,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -4209,7 +4221,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -4226,7 +4238,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -4243,7 +4255,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -4260,7 +4272,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -4277,7 +4289,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -4294,7 +4306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -4311,7 +4323,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>110</v>
       </c>
@@ -4328,7 +4340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>112</v>
       </c>
@@ -4345,7 +4357,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -4362,7 +4374,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -4379,7 +4391,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>118</v>
       </c>
@@ -4396,7 +4408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>120</v>
       </c>
@@ -4413,7 +4425,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>122</v>
       </c>
@@ -4430,7 +4442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>124</v>
       </c>
@@ -4447,7 +4459,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -4464,7 +4476,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>128</v>
       </c>
@@ -4481,7 +4493,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>130</v>
       </c>
@@ -4498,7 +4510,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -4515,7 +4527,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>134</v>
       </c>
@@ -4532,7 +4544,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>136</v>
       </c>
@@ -4549,7 +4561,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -4566,7 +4578,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -4583,7 +4595,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>142</v>
       </c>
@@ -4600,7 +4612,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -4617,7 +4629,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -4634,7 +4646,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -4651,7 +4663,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>150</v>
       </c>
@@ -4668,7 +4680,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -4685,7 +4697,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>154</v>
       </c>
@@ -4702,7 +4714,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>156</v>
       </c>
@@ -4719,7 +4731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>158</v>
       </c>
@@ -4736,7 +4748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>160</v>
       </c>
@@ -4753,7 +4765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>162</v>
       </c>
@@ -4770,7 +4782,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>164</v>
       </c>
@@ -4787,7 +4799,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>166</v>
       </c>
@@ -4804,7 +4816,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>168</v>
       </c>
@@ -4821,7 +4833,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>170</v>
       </c>
@@ -4838,7 +4850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>172</v>
       </c>
@@ -4855,7 +4867,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>174</v>
       </c>
@@ -4872,7 +4884,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>176</v>
       </c>
@@ -4889,7 +4901,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>178</v>
       </c>
@@ -4906,7 +4918,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>180</v>
       </c>
@@ -4923,7 +4935,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>182</v>
       </c>
@@ -4940,7 +4952,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>184</v>
       </c>
@@ -4957,7 +4969,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>186</v>
       </c>
@@ -4974,7 +4986,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>188</v>
       </c>
@@ -4991,7 +5003,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>190</v>
       </c>
@@ -5008,7 +5020,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>192</v>
       </c>
@@ -5025,7 +5037,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>194</v>
       </c>
@@ -5042,7 +5054,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>196</v>
       </c>
@@ -5059,7 +5071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>198</v>
       </c>
@@ -5076,7 +5088,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>200</v>
       </c>
@@ -5093,7 +5105,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>202</v>
       </c>
@@ -5110,7 +5122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>204</v>
       </c>
@@ -5127,7 +5139,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>206</v>
       </c>
@@ -5144,7 +5156,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>208</v>
       </c>
@@ -5161,7 +5173,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>210</v>
       </c>
@@ -5178,7 +5190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>212</v>
       </c>
@@ -5195,7 +5207,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>214</v>
       </c>
@@ -5212,7 +5224,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>216</v>
       </c>
@@ -5229,7 +5241,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>218</v>
       </c>
@@ -5246,7 +5258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>220</v>
       </c>
@@ -5263,7 +5275,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>222</v>
       </c>
@@ -5280,7 +5292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>224</v>
       </c>
@@ -5297,7 +5309,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>226</v>
       </c>
@@ -5314,7 +5326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>228</v>
       </c>
@@ -5331,7 +5343,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>230</v>
       </c>
@@ -5348,7 +5360,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>232</v>
       </c>
@@ -5365,7 +5377,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>234</v>
       </c>
@@ -5382,7 +5394,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>236</v>
       </c>
@@ -5399,7 +5411,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>238</v>
       </c>
@@ -5416,7 +5428,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>240</v>
       </c>
@@ -5433,7 +5445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>242</v>
       </c>
@@ -5450,7 +5462,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>244</v>
       </c>
@@ -5467,7 +5479,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>246</v>
       </c>
@@ -5484,7 +5496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>248</v>
       </c>
@@ -5501,7 +5513,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>250</v>
       </c>
@@ -5518,7 +5530,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>252</v>
       </c>
@@ -5535,7 +5547,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>254</v>
       </c>
@@ -5552,7 +5564,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>256</v>
       </c>
@@ -5569,7 +5581,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>258</v>
       </c>
@@ -5586,7 +5598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>260</v>
       </c>
@@ -5603,7 +5615,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>262</v>
       </c>
@@ -5620,7 +5632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>264</v>
       </c>
@@ -5637,7 +5649,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>266</v>
       </c>
@@ -5654,7 +5666,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>268</v>
       </c>
@@ -5671,7 +5683,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>270</v>
       </c>
@@ -5688,7 +5700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>272</v>
       </c>
@@ -5718,17 +5730,17 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>274</v>
       </c>
@@ -5742,21 +5754,21 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>511</v>
+        <v>276</v>
       </c>
       <c r="F1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -5768,18 +5780,18 @@
         <v>143</v>
       </c>
       <c r="F2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G2">
         <v>15.77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -5791,18 +5803,18 @@
         <v>117</v>
       </c>
       <c r="F3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G3">
         <v>21.54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -5814,18 +5826,18 @@
         <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G4">
         <v>25.49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -5837,18 +5849,18 @@
         <v>132</v>
       </c>
       <c r="F5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G5">
         <v>34.69</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -5860,18 +5872,18 @@
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G6">
         <v>22.15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -5883,18 +5895,18 @@
         <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G7">
         <v>15.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -5906,18 +5918,18 @@
         <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G8">
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -5929,18 +5941,18 @@
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G9">
         <v>5.88</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -5952,18 +5964,18 @@
         <v>138</v>
       </c>
       <c r="F10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G10">
         <v>28.31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -5975,18 +5987,18 @@
         <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G11">
         <v>23.91</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -5998,18 +6010,18 @@
         <v>145</v>
       </c>
       <c r="F12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G12">
         <v>32.01</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -6021,18 +6033,18 @@
         <v>141</v>
       </c>
       <c r="F13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G13">
         <v>33.4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -6044,18 +6056,18 @@
         <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G14">
         <v>11.58</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -6067,18 +6079,18 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G15">
         <v>8.75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -6090,18 +6102,18 @@
         <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G16">
         <v>28.56</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B17" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -6113,18 +6125,18 @@
         <v>118</v>
       </c>
       <c r="F17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G17">
         <v>38.71</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B18" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -6136,18 +6148,18 @@
         <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G18">
         <v>18.260000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -6159,18 +6171,18 @@
         <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G19">
         <v>15.37</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B20" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -6182,18 +6194,18 @@
         <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G20">
         <v>7.55</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -6205,18 +6217,18 @@
         <v>126</v>
       </c>
       <c r="F21" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G21">
         <v>8.51</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B22" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -6228,18 +6240,18 @@
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G22">
         <v>9.4700000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B23" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -6251,18 +6263,18 @@
         <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G23">
         <v>31.85</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -6274,18 +6286,18 @@
         <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G24">
         <v>37.83</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -6297,18 +6309,18 @@
         <v>76</v>
       </c>
       <c r="F25" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G25">
         <v>21.17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -6320,18 +6332,18 @@
         <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G26">
         <v>5.03</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B27" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -6343,18 +6355,18 @@
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G27">
         <v>23.58</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B28" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -6366,18 +6378,18 @@
         <v>61</v>
       </c>
       <c r="F28" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G28">
         <v>34.58</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B29" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -6389,18 +6401,18 @@
         <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G29">
         <v>11.36</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B30" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C30" t="s">
         <v>21</v>
@@ -6412,18 +6424,18 @@
         <v>97</v>
       </c>
       <c r="F30" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G30">
         <v>10.39</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B31" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -6435,18 +6447,18 @@
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G31">
         <v>29.16</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B32" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C32" t="s">
         <v>21</v>
@@ -6458,18 +6470,18 @@
         <v>146</v>
       </c>
       <c r="F32" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G32">
         <v>36.450000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B33" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -6481,18 +6493,18 @@
         <v>55</v>
       </c>
       <c r="F33" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G33">
         <v>36.06</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B34" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -6504,18 +6516,18 @@
         <v>117</v>
       </c>
       <c r="F34" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G34">
         <v>37.9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C35" t="s">
         <v>21</v>
@@ -6527,18 +6539,18 @@
         <v>144</v>
       </c>
       <c r="F35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G35">
         <v>28.13</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B36" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -6550,18 +6562,18 @@
         <v>106</v>
       </c>
       <c r="F36" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G36">
         <v>38.22</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B37" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -6573,18 +6585,18 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G37">
         <v>24.65</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B38" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C38" t="s">
         <v>21</v>
@@ -6596,18 +6608,18 @@
         <v>27</v>
       </c>
       <c r="F38" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G38">
         <v>19.12</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B39" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C39" t="s">
         <v>21</v>
@@ -6619,18 +6631,18 @@
         <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G39">
         <v>22.48</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B40" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
@@ -6642,18 +6654,18 @@
         <v>97</v>
       </c>
       <c r="F40" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G40">
         <v>10.9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B41" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -6665,18 +6677,18 @@
         <v>65</v>
       </c>
       <c r="F41" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G41">
         <v>35.909999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B42" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -6688,18 +6700,18 @@
         <v>48</v>
       </c>
       <c r="F42" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G42">
         <v>15.37</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B43" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -6711,18 +6723,18 @@
         <v>25</v>
       </c>
       <c r="F43" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G43">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B44" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -6734,18 +6746,18 @@
         <v>125</v>
       </c>
       <c r="F44" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G44">
         <v>29.3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B45" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C45" t="s">
         <v>21</v>
@@ -6757,18 +6769,18 @@
         <v>47</v>
       </c>
       <c r="F45" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G45">
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -6780,18 +6792,18 @@
         <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G46">
         <v>21.28</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B47" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
@@ -6803,18 +6815,18 @@
         <v>58</v>
       </c>
       <c r="F47" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G47">
         <v>16.989999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B48" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
@@ -6826,18 +6838,18 @@
         <v>119</v>
       </c>
       <c r="F48" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G48">
         <v>20.5</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B49" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C49" t="s">
         <v>21</v>
@@ -6849,18 +6861,18 @@
         <v>101</v>
       </c>
       <c r="F49" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G49">
         <v>34.06</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B50" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
@@ -6872,18 +6884,18 @@
         <v>78</v>
       </c>
       <c r="F50" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G50">
         <v>14.59</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B51" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C51" t="s">
         <v>21</v>
@@ -6895,7 +6907,7 @@
         <v>90</v>
       </c>
       <c r="F51" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G51">
         <v>8.19</v>
@@ -6914,19 +6926,19 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6938,18 +6950,18 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -6961,18 +6973,18 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -6984,18 +6996,18 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -7007,18 +7019,18 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -7030,18 +7042,18 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -7053,18 +7065,18 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G6" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -7076,18 +7088,18 @@
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -7099,18 +7111,18 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G8" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -7122,18 +7134,18 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -7145,18 +7157,18 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
@@ -7168,18 +7180,18 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G11" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -7191,18 +7203,18 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F12" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -7214,18 +7226,18 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F13" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G13" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -7237,18 +7249,18 @@
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F14" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -7260,18 +7272,18 @@
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F15" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G15" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
@@ -7283,18 +7295,18 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F16" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G16" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
@@ -7306,18 +7318,18 @@
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F17" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G17" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -7329,18 +7341,18 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F18" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G18" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -7352,18 +7364,18 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F19" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G19" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B20" t="s">
         <v>68</v>
@@ -7375,18 +7387,18 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F20" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G20" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -7398,18 +7410,18 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F21" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G21" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -7421,18 +7433,18 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F22" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G22" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B23" t="s">
         <v>61</v>
@@ -7444,18 +7456,18 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F23" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G23" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
@@ -7467,18 +7479,18 @@
         <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F24" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G24" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B25" t="s">
         <v>52</v>
@@ -7490,18 +7502,18 @@
         <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F25" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G25" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B26" t="s">
         <v>68</v>
@@ -7513,18 +7525,18 @@
         <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F26" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G26" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
@@ -7536,18 +7548,18 @@
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F27" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G27" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B28" t="s">
         <v>49</v>
@@ -7559,18 +7571,18 @@
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F28" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G28" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -7582,18 +7594,18 @@
         <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F29" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G29" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
@@ -7605,18 +7617,18 @@
         <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F30" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G30" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B31" t="s">
         <v>43</v>
@@ -7628,18 +7640,18 @@
         <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F31" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G31" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -7651,18 +7663,18 @@
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F32" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G32" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B33" t="s">
         <v>61</v>
@@ -7674,18 +7686,18 @@
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F33" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G33" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -7697,18 +7709,18 @@
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F34" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G34" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
@@ -7720,18 +7732,18 @@
         <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F35" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G35" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
@@ -7743,18 +7755,18 @@
         <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F36" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G36" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -7766,18 +7778,18 @@
         <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F37" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G37" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B38" t="s">
         <v>55</v>
@@ -7789,18 +7801,18 @@
         <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F38" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G38" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
@@ -7812,18 +7824,18 @@
         <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F39" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G39" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
@@ -7835,18 +7847,18 @@
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F40" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G40" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
@@ -7858,18 +7870,18 @@
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F41" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G41" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B42" t="s">
         <v>40</v>
@@ -7881,18 +7893,18 @@
         <v>21</v>
       </c>
       <c r="E42" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F42" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G42" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B43" t="s">
         <v>68</v>
@@ -7904,18 +7916,18 @@
         <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F43" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G43" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B44" t="s">
         <v>61</v>
@@ -7927,18 +7939,18 @@
         <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F44" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G44" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -7950,18 +7962,18 @@
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F45" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G45" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B46" t="s">
         <v>37</v>
@@ -7973,18 +7985,18 @@
         <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F46" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G46" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B47" t="s">
         <v>24</v>
@@ -7996,18 +8008,18 @@
         <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F47" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G47" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
@@ -8019,18 +8031,18 @@
         <v>21</v>
       </c>
       <c r="E48" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F48" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G48" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B49" t="s">
         <v>46</v>
@@ -8042,18 +8054,18 @@
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F49" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G49" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B50" t="s">
         <v>58</v>
@@ -8065,18 +8077,18 @@
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F50" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G50" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -8088,13 +8100,13 @@
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F51" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G51" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -8110,18 +8122,18 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B1" t="s">
         <v>275</v>
@@ -8130,10 +8142,10 @@
         <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E1" t="s">
-        <v>511</v>
+        <v>276</v>
       </c>
       <c r="F1" t="s">
         <v>512</v>
@@ -8142,12 +8154,12 @@
         <v>513</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>514</v>
       </c>
       <c r="B2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C2" t="s">
         <v>91</v>
@@ -8162,15 +8174,15 @@
         <v>568.5</v>
       </c>
       <c r="G2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>515</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C3" t="s">
         <v>235</v>
@@ -8188,12 +8200,12 @@
         <v>516</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>517</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C4" t="s">
         <v>203</v>
@@ -8211,12 +8223,12 @@
         <v>518</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>519</v>
       </c>
       <c r="B5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C5" t="s">
         <v>143</v>
@@ -8234,12 +8246,12 @@
         <v>520</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>521</v>
       </c>
       <c r="B6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C6" t="s">
         <v>137</v>
@@ -8257,12 +8269,12 @@
         <v>522</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>523</v>
       </c>
       <c r="B7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C7" t="s">
         <v>213</v>
@@ -8280,12 +8292,12 @@
         <v>524</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>525</v>
       </c>
       <c r="B8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C8" t="s">
         <v>271</v>
@@ -8303,12 +8315,12 @@
         <v>526</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>527</v>
       </c>
       <c r="B9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C9" t="s">
         <v>223</v>
@@ -8326,12 +8338,12 @@
         <v>528</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>529</v>
       </c>
       <c r="B10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C10" t="s">
         <v>197</v>
@@ -8349,12 +8361,12 @@
         <v>530</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>531</v>
       </c>
       <c r="B11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C11" t="s">
         <v>141</v>
@@ -8372,12 +8384,12 @@
         <v>532</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>533</v>
       </c>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C12" t="s">
         <v>115</v>
@@ -8395,12 +8407,12 @@
         <v>534</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>535</v>
       </c>
       <c r="B13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C13" t="s">
         <v>251</v>
@@ -8418,12 +8430,12 @@
         <v>536</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>537</v>
       </c>
       <c r="B14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C14" t="s">
         <v>273</v>
@@ -8441,12 +8453,12 @@
         <v>538</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>539</v>
       </c>
       <c r="B15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C15" t="s">
         <v>221</v>
@@ -8464,12 +8476,12 @@
         <v>540</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>541</v>
       </c>
       <c r="B16" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C16" t="s">
         <v>265</v>
@@ -8487,12 +8499,12 @@
         <v>542</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>543</v>
       </c>
       <c r="B17" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C17" t="s">
         <v>81</v>
@@ -8510,12 +8522,12 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>545</v>
       </c>
       <c r="B18" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C18" t="s">
         <v>237</v>
@@ -8533,12 +8545,12 @@
         <v>546</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>547</v>
       </c>
       <c r="B19" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C19" t="s">
         <v>221</v>
@@ -8553,15 +8565,15 @@
         <v>16.760000000000002</v>
       </c>
       <c r="G19" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>548</v>
       </c>
       <c r="B20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C20" t="s">
         <v>221</v>
@@ -8579,12 +8591,12 @@
         <v>549</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>550</v>
       </c>
       <c r="B21" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C21" t="s">
         <v>223</v>
@@ -8602,12 +8614,12 @@
         <v>551</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>552</v>
       </c>
       <c r="B22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C22" t="s">
         <v>167</v>
@@ -8625,12 +8637,12 @@
         <v>553</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>554</v>
       </c>
       <c r="B23" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C23" t="s">
         <v>217</v>
@@ -8648,12 +8660,12 @@
         <v>555</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>556</v>
       </c>
       <c r="B24" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C24" t="s">
         <v>99</v>
@@ -8668,15 +8680,15 @@
         <v>659.1099999999999</v>
       </c>
       <c r="G24" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>557</v>
       </c>
       <c r="B25" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C25" t="s">
         <v>197</v>
@@ -8694,12 +8706,12 @@
         <v>558</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>559</v>
       </c>
       <c r="B26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C26" t="s">
         <v>241</v>
@@ -8714,15 +8726,15 @@
         <v>100.2</v>
       </c>
       <c r="G26" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>560</v>
       </c>
       <c r="B27" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C27" t="s">
         <v>193</v>
@@ -8740,12 +8752,12 @@
         <v>561</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>562</v>
       </c>
       <c r="B28" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C28" t="s">
         <v>89</v>
@@ -8763,12 +8775,12 @@
         <v>555</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>563</v>
       </c>
       <c r="B29" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C29" t="s">
         <v>151</v>
@@ -8786,12 +8798,12 @@
         <v>564</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>565</v>
       </c>
       <c r="B30" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C30" t="s">
         <v>147</v>
@@ -8809,12 +8821,12 @@
         <v>534</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>566</v>
       </c>
       <c r="B31" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C31" t="s">
         <v>99</v>
@@ -8832,12 +8844,12 @@
         <v>567</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>568</v>
       </c>
       <c r="B32" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C32" t="s">
         <v>153</v>
@@ -8855,12 +8867,12 @@
         <v>569</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>570</v>
       </c>
       <c r="B33" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C33" t="s">
         <v>113</v>
@@ -8878,12 +8890,12 @@
         <v>571</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>572</v>
       </c>
       <c r="B34" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C34" t="s">
         <v>237</v>
@@ -8901,12 +8913,12 @@
         <v>573</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>574</v>
       </c>
       <c r="B35" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C35" t="s">
         <v>115</v>
@@ -8924,12 +8936,12 @@
         <v>575</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>576</v>
       </c>
       <c r="B36" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C36" t="s">
         <v>93</v>
@@ -8947,12 +8959,12 @@
         <v>577</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>578</v>
       </c>
       <c r="B37" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C37" t="s">
         <v>113</v>
@@ -8970,12 +8982,12 @@
         <v>579</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>580</v>
       </c>
       <c r="B38" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C38" t="s">
         <v>213</v>
@@ -8993,12 +9005,12 @@
         <v>581</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>582</v>
       </c>
       <c r="B39" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C39" t="s">
         <v>269</v>
@@ -9016,12 +9028,12 @@
         <v>583</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>584</v>
       </c>
       <c r="B40" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C40" t="s">
         <v>233</v>
@@ -9039,12 +9051,12 @@
         <v>585</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>586</v>
       </c>
       <c r="B41" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C41" t="s">
         <v>227</v>
@@ -9062,12 +9074,12 @@
         <v>587</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>588</v>
       </c>
       <c r="B42" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C42" t="s">
         <v>139</v>
@@ -9085,12 +9097,12 @@
         <v>589</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>590</v>
       </c>
       <c r="B43" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C43" t="s">
         <v>149</v>
@@ -9108,12 +9120,12 @@
         <v>591</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>592</v>
       </c>
       <c r="B44" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C44" t="s">
         <v>181</v>
@@ -9131,12 +9143,12 @@
         <v>593</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>594</v>
       </c>
       <c r="B45" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C45" t="s">
         <v>195</v>
@@ -9151,15 +9163,15 @@
         <v>324.54000000000002</v>
       </c>
       <c r="G45" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>595</v>
       </c>
       <c r="B46" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C46" t="s">
         <v>75</v>
@@ -9177,12 +9189,12 @@
         <v>558</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>596</v>
       </c>
       <c r="B47" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C47" t="s">
         <v>131</v>
@@ -9200,12 +9212,12 @@
         <v>597</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>598</v>
       </c>
       <c r="B48" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C48" t="s">
         <v>147</v>
@@ -9223,12 +9235,12 @@
         <v>599</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>600</v>
       </c>
       <c r="B49" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C49" t="s">
         <v>173</v>
@@ -9243,15 +9255,15 @@
         <v>387.1</v>
       </c>
       <c r="G49" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>601</v>
       </c>
       <c r="B50" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C50" t="s">
         <v>267</v>
@@ -9269,12 +9281,12 @@
         <v>602</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>603</v>
       </c>
       <c r="B51" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C51" t="s">
         <v>103</v>
@@ -9292,12 +9304,12 @@
         <v>549</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>604</v>
       </c>
       <c r="B52" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C52" t="s">
         <v>221</v>
@@ -9315,12 +9327,12 @@
         <v>605</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>606</v>
       </c>
       <c r="B53" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C53" t="s">
         <v>101</v>
@@ -9338,12 +9350,12 @@
         <v>583</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>607</v>
       </c>
       <c r="B54" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C54" t="s">
         <v>199</v>
@@ -9358,15 +9370,15 @@
         <v>76.47</v>
       </c>
       <c r="G54" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>608</v>
       </c>
       <c r="B55" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C55" t="s">
         <v>169</v>
@@ -9384,12 +9396,12 @@
         <v>609</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>610</v>
       </c>
       <c r="B56" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C56" t="s">
         <v>231</v>
@@ -9407,12 +9419,12 @@
         <v>611</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>612</v>
       </c>
       <c r="B57" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C57" t="s">
         <v>77</v>
@@ -9430,12 +9442,12 @@
         <v>613</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>614</v>
       </c>
       <c r="B58" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C58" t="s">
         <v>161</v>
@@ -9453,12 +9465,12 @@
         <v>615</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>616</v>
       </c>
       <c r="B59" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C59" t="s">
         <v>251</v>
@@ -9476,12 +9488,12 @@
         <v>617</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>618</v>
       </c>
       <c r="B60" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C60" t="s">
         <v>225</v>
@@ -9496,15 +9508,15 @@
         <v>242.83</v>
       </c>
       <c r="G60" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>619</v>
       </c>
       <c r="B61" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C61" t="s">
         <v>213</v>
@@ -9522,12 +9534,12 @@
         <v>620</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>621</v>
       </c>
       <c r="B62" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C62" t="s">
         <v>157</v>
@@ -9545,12 +9557,12 @@
         <v>544</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>622</v>
       </c>
       <c r="B63" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C63" t="s">
         <v>165</v>
@@ -9568,12 +9580,12 @@
         <v>540</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>623</v>
       </c>
       <c r="B64" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C64" t="s">
         <v>223</v>
@@ -9591,12 +9603,12 @@
         <v>624</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>625</v>
       </c>
       <c r="B65" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C65" t="s">
         <v>177</v>
@@ -9614,12 +9626,12 @@
         <v>626</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>627</v>
       </c>
       <c r="B66" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C66" t="s">
         <v>183</v>
@@ -9637,12 +9649,12 @@
         <v>605</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>628</v>
       </c>
       <c r="B67" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C67" t="s">
         <v>181</v>
@@ -9660,12 +9672,12 @@
         <v>629</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>630</v>
       </c>
       <c r="B68" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C68" t="s">
         <v>269</v>
@@ -9683,12 +9695,12 @@
         <v>631</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>632</v>
       </c>
       <c r="B69" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C69" t="s">
         <v>225</v>
@@ -9706,12 +9718,12 @@
         <v>633</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>634</v>
       </c>
       <c r="B70" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C70" t="s">
         <v>139</v>
@@ -9726,15 +9738,15 @@
         <v>114.72</v>
       </c>
       <c r="G70" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>635</v>
       </c>
       <c r="B71" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C71" t="s">
         <v>103</v>
@@ -9749,15 +9761,15 @@
         <v>20.12</v>
       </c>
       <c r="G71" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>636</v>
       </c>
       <c r="B72" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C72" t="s">
         <v>159</v>
@@ -9775,12 +9787,12 @@
         <v>637</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>638</v>
       </c>
       <c r="B73" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C73" t="s">
         <v>87</v>
@@ -9798,12 +9810,12 @@
         <v>639</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>640</v>
       </c>
       <c r="B74" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C74" t="s">
         <v>93</v>
@@ -9821,12 +9833,12 @@
         <v>641</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>642</v>
       </c>
       <c r="B75" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C75" t="s">
         <v>157</v>
@@ -9844,12 +9856,12 @@
         <v>643</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>644</v>
       </c>
       <c r="B76" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C76" t="s">
         <v>75</v>
@@ -9867,12 +9879,12 @@
         <v>597</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>645</v>
       </c>
       <c r="B77" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C77" t="s">
         <v>211</v>
@@ -9890,12 +9902,12 @@
         <v>646</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>647</v>
       </c>
       <c r="B78" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C78" t="s">
         <v>115</v>
@@ -9913,12 +9925,12 @@
         <v>648</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>649</v>
       </c>
       <c r="B79" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C79" t="s">
         <v>79</v>
@@ -9936,12 +9948,12 @@
         <v>650</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>651</v>
       </c>
       <c r="B80" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C80" t="s">
         <v>197</v>
@@ -9959,12 +9971,12 @@
         <v>652</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>653</v>
       </c>
       <c r="B81" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C81" t="s">
         <v>177</v>
@@ -9979,15 +9991,15 @@
         <v>69.38</v>
       </c>
       <c r="G81" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>654</v>
       </c>
       <c r="B82" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C82" t="s">
         <v>115</v>
@@ -10005,12 +10017,12 @@
         <v>655</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>656</v>
       </c>
       <c r="B83" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C83" t="s">
         <v>271</v>
@@ -10028,12 +10040,12 @@
         <v>657</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>658</v>
       </c>
       <c r="B84" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C84" t="s">
         <v>213</v>
@@ -10051,12 +10063,12 @@
         <v>659</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>660</v>
       </c>
       <c r="B85" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C85" t="s">
         <v>183</v>
@@ -10074,12 +10086,12 @@
         <v>661</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>662</v>
       </c>
       <c r="B86" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C86" t="s">
         <v>241</v>
@@ -10097,12 +10109,12 @@
         <v>663</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>664</v>
       </c>
       <c r="B87" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C87" t="s">
         <v>261</v>
@@ -10120,12 +10132,12 @@
         <v>665</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>666</v>
       </c>
       <c r="B88" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C88" t="s">
         <v>193</v>
@@ -10143,12 +10155,12 @@
         <v>667</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>668</v>
       </c>
       <c r="B89" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C89" t="s">
         <v>173</v>
@@ -10163,15 +10175,15 @@
         <v>133.84</v>
       </c>
       <c r="G89" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>669</v>
       </c>
       <c r="B90" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C90" t="s">
         <v>115</v>
@@ -10189,12 +10201,12 @@
         <v>670</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>671</v>
       </c>
       <c r="B91" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C91" t="s">
         <v>161</v>
@@ -10212,12 +10224,12 @@
         <v>672</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>673</v>
       </c>
       <c r="B92" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C92" t="s">
         <v>97</v>
@@ -10235,12 +10247,12 @@
         <v>674</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>675</v>
       </c>
       <c r="B93" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C93" t="s">
         <v>183</v>
@@ -10255,15 +10267,15 @@
         <v>509.7999999999999</v>
       </c>
       <c r="G93" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>676</v>
       </c>
       <c r="B94" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C94" t="s">
         <v>245</v>
@@ -10281,12 +10293,12 @@
         <v>677</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>678</v>
       </c>
       <c r="B95" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C95" t="s">
         <v>191</v>
@@ -10304,12 +10316,12 @@
         <v>679</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>680</v>
       </c>
       <c r="B96" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C96" t="s">
         <v>183</v>
@@ -10327,12 +10339,12 @@
         <v>681</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>682</v>
       </c>
       <c r="B97" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C97" t="s">
         <v>165</v>
@@ -10350,12 +10362,12 @@
         <v>683</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>684</v>
       </c>
       <c r="B98" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C98" t="s">
         <v>147</v>
@@ -10373,12 +10385,12 @@
         <v>685</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>686</v>
       </c>
       <c r="B99" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C99" t="s">
         <v>155</v>
@@ -10396,12 +10408,12 @@
         <v>687</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>688</v>
       </c>
       <c r="B100" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C100" t="s">
         <v>267</v>
@@ -10416,15 +10428,15 @@
         <v>114.24</v>
       </c>
       <c r="G100" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>689</v>
       </c>
       <c r="B101" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C101" t="s">
         <v>191</v>
@@ -10442,12 +10454,12 @@
         <v>690</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>691</v>
       </c>
       <c r="B102" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C102" t="s">
         <v>225</v>
@@ -10465,12 +10477,12 @@
         <v>692</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>693</v>
       </c>
       <c r="B103" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C103" t="s">
         <v>251</v>
@@ -10488,12 +10500,12 @@
         <v>694</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>695</v>
       </c>
       <c r="B104" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C104" t="s">
         <v>247</v>
@@ -10511,12 +10523,12 @@
         <v>696</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>697</v>
       </c>
       <c r="B105" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C105" t="s">
         <v>131</v>
@@ -10531,15 +10543,15 @@
         <v>75.760000000000005</v>
       </c>
       <c r="G105" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>698</v>
       </c>
       <c r="B106" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C106" t="s">
         <v>199</v>
@@ -10557,12 +10569,12 @@
         <v>699</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>700</v>
       </c>
       <c r="B107" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C107" t="s">
         <v>265</v>
@@ -10577,15 +10589,15 @@
         <v>396.34</v>
       </c>
       <c r="G107" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>701</v>
       </c>
       <c r="B108" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C108" t="s">
         <v>271</v>
@@ -10603,12 +10615,12 @@
         <v>702</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>703</v>
       </c>
       <c r="B109" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C109" t="s">
         <v>223</v>
@@ -10626,12 +10638,12 @@
         <v>704</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>705</v>
       </c>
       <c r="B110" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C110" t="s">
         <v>83</v>
@@ -10649,12 +10661,12 @@
         <v>706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>707</v>
       </c>
       <c r="B111" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C111" t="s">
         <v>163</v>
@@ -10672,12 +10684,12 @@
         <v>524</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>708</v>
       </c>
       <c r="B112" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C112" t="s">
         <v>85</v>
@@ -10695,12 +10707,12 @@
         <v>709</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>710</v>
       </c>
       <c r="B113" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C113" t="s">
         <v>95</v>
@@ -10718,12 +10730,12 @@
         <v>711</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>712</v>
       </c>
       <c r="B114" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C114" t="s">
         <v>225</v>
@@ -10741,12 +10753,12 @@
         <v>713</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>714</v>
       </c>
       <c r="B115" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C115" t="s">
         <v>269</v>
@@ -10764,12 +10776,12 @@
         <v>715</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>716</v>
       </c>
       <c r="B116" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C116" t="s">
         <v>223</v>
@@ -10787,12 +10799,12 @@
         <v>717</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>718</v>
       </c>
       <c r="B117" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C117" t="s">
         <v>167</v>
@@ -10810,12 +10822,12 @@
         <v>719</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>720</v>
       </c>
       <c r="B118" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C118" t="s">
         <v>207</v>
@@ -10833,12 +10845,12 @@
         <v>721</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>722</v>
       </c>
       <c r="B119" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C119" t="s">
         <v>129</v>
@@ -10856,12 +10868,12 @@
         <v>723</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>724</v>
       </c>
       <c r="B120" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C120" t="s">
         <v>149</v>
@@ -10879,12 +10891,12 @@
         <v>725</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>726</v>
       </c>
       <c r="B121" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C121" t="s">
         <v>157</v>
@@ -10902,12 +10914,12 @@
         <v>564</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>727</v>
       </c>
       <c r="B122" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C122" t="s">
         <v>165</v>
@@ -10925,12 +10937,12 @@
         <v>551</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>728</v>
       </c>
       <c r="B123" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C123" t="s">
         <v>157</v>
@@ -10948,12 +10960,12 @@
         <v>729</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>730</v>
       </c>
       <c r="B124" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C124" t="s">
         <v>191</v>
@@ -10971,12 +10983,12 @@
         <v>585</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>731</v>
       </c>
       <c r="B125" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C125" t="s">
         <v>143</v>
@@ -10994,12 +11006,12 @@
         <v>648</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>732</v>
       </c>
       <c r="B126" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C126" t="s">
         <v>223</v>
@@ -11017,12 +11029,12 @@
         <v>522</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>733</v>
       </c>
       <c r="B127" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C127" t="s">
         <v>155</v>
@@ -11040,12 +11052,12 @@
         <v>734</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>735</v>
       </c>
       <c r="B128" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C128" t="s">
         <v>227</v>
@@ -11063,12 +11075,12 @@
         <v>736</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>737</v>
       </c>
       <c r="B129" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C129" t="s">
         <v>85</v>
@@ -11086,12 +11098,12 @@
         <v>583</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>738</v>
       </c>
       <c r="B130" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C130" t="s">
         <v>121</v>
@@ -11106,15 +11118,15 @@
         <v>443.7</v>
       </c>
       <c r="G130" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>739</v>
       </c>
       <c r="B131" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C131" t="s">
         <v>135</v>
@@ -11132,12 +11144,12 @@
         <v>740</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>741</v>
       </c>
       <c r="B132" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C132" t="s">
         <v>181</v>
@@ -11155,12 +11167,12 @@
         <v>742</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>743</v>
       </c>
       <c r="B133" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C133" t="s">
         <v>245</v>
@@ -11178,12 +11190,12 @@
         <v>744</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>745</v>
       </c>
       <c r="B134" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C134" t="s">
         <v>229</v>
@@ -11201,12 +11213,12 @@
         <v>746</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>747</v>
       </c>
       <c r="B135" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C135" t="s">
         <v>161</v>
@@ -11221,15 +11233,15 @@
         <v>205</v>
       </c>
       <c r="G135" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>748</v>
       </c>
       <c r="B136" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C136" t="s">
         <v>153</v>
@@ -11247,12 +11259,12 @@
         <v>749</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>750</v>
       </c>
       <c r="B137" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C137" t="s">
         <v>147</v>
@@ -11270,12 +11282,12 @@
         <v>751</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>752</v>
       </c>
       <c r="B138" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C138" t="s">
         <v>177</v>
@@ -11293,12 +11305,12 @@
         <v>753</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>754</v>
       </c>
       <c r="B139" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C139" t="s">
         <v>129</v>
@@ -11316,12 +11328,12 @@
         <v>755</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>756</v>
       </c>
       <c r="B140" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C140" t="s">
         <v>131</v>
@@ -11339,12 +11351,12 @@
         <v>757</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>758</v>
       </c>
       <c r="B141" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C141" t="s">
         <v>207</v>
@@ -11362,12 +11374,12 @@
         <v>759</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>760</v>
       </c>
       <c r="B142" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C142" t="s">
         <v>229</v>
@@ -11385,12 +11397,12 @@
         <v>581</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>761</v>
       </c>
       <c r="B143" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C143" t="s">
         <v>267</v>
@@ -11408,12 +11420,12 @@
         <v>736</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>762</v>
       </c>
       <c r="B144" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C144" t="s">
         <v>163</v>
@@ -11431,12 +11443,12 @@
         <v>763</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>764</v>
       </c>
       <c r="B145" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C145" t="s">
         <v>79</v>
@@ -11454,12 +11466,12 @@
         <v>567</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>765</v>
       </c>
       <c r="B146" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C146" t="s">
         <v>119</v>
@@ -11477,12 +11489,12 @@
         <v>766</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>767</v>
       </c>
       <c r="B147" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C147" t="s">
         <v>131</v>
@@ -11500,12 +11512,12 @@
         <v>768</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>769</v>
       </c>
       <c r="B148" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C148" t="s">
         <v>199</v>
@@ -11520,15 +11532,15 @@
         <v>122.4</v>
       </c>
       <c r="G148" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>770</v>
       </c>
       <c r="B149" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C149" t="s">
         <v>119</v>
@@ -11546,12 +11558,12 @@
         <v>771</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>772</v>
       </c>
       <c r="B150" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C150" t="s">
         <v>89</v>
@@ -11569,12 +11581,12 @@
         <v>657</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>773</v>
       </c>
       <c r="B151" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C151" t="s">
         <v>91</v>
@@ -11592,12 +11604,12 @@
         <v>650</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>774</v>
       </c>
       <c r="B152" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C152" t="s">
         <v>241</v>
@@ -11615,12 +11627,12 @@
         <v>775</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>776</v>
       </c>
       <c r="B153" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C153" t="s">
         <v>239</v>
@@ -11638,12 +11650,12 @@
         <v>777</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>778</v>
       </c>
       <c r="B154" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C154" t="s">
         <v>125</v>
@@ -11661,12 +11673,12 @@
         <v>744</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>779</v>
       </c>
       <c r="B155" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C155" t="s">
         <v>79</v>
@@ -11684,12 +11696,12 @@
         <v>780</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>781</v>
       </c>
       <c r="B156" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C156" t="s">
         <v>233</v>
@@ -11707,12 +11719,12 @@
         <v>782</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>783</v>
       </c>
       <c r="B157" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C157" t="s">
         <v>213</v>
@@ -11730,12 +11742,12 @@
         <v>679</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>784</v>
       </c>
       <c r="B158" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C158" t="s">
         <v>183</v>
@@ -11753,12 +11765,12 @@
         <v>785</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>786</v>
       </c>
       <c r="B159" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C159" t="s">
         <v>171</v>
@@ -11776,12 +11788,12 @@
         <v>787</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>788</v>
       </c>
       <c r="B160" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C160" t="s">
         <v>95</v>
@@ -11799,12 +11811,12 @@
         <v>540</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
         <v>789</v>
       </c>
       <c r="B161" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C161" t="s">
         <v>159</v>
@@ -11822,12 +11834,12 @@
         <v>790</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>791</v>
       </c>
       <c r="B162" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C162" t="s">
         <v>265</v>
@@ -11845,12 +11857,12 @@
         <v>792</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
         <v>793</v>
       </c>
       <c r="B163" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C163" t="s">
         <v>239</v>
@@ -11868,12 +11880,12 @@
         <v>794</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
         <v>795</v>
       </c>
       <c r="B164" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C164" t="s">
         <v>217</v>
@@ -11891,12 +11903,12 @@
         <v>796</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>797</v>
       </c>
       <c r="B165" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C165" t="s">
         <v>273</v>
@@ -11914,12 +11926,12 @@
         <v>798</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>799</v>
       </c>
       <c r="B166" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C166" t="s">
         <v>205</v>
@@ -11937,12 +11949,12 @@
         <v>593</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>800</v>
       </c>
       <c r="B167" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C167" t="s">
         <v>225</v>
@@ -11960,12 +11972,12 @@
         <v>801</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>802</v>
       </c>
       <c r="B168" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C168" t="s">
         <v>267</v>
@@ -11983,12 +11995,12 @@
         <v>803</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7">
       <c r="A169" t="s">
         <v>804</v>
       </c>
       <c r="B169" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C169" t="s">
         <v>135</v>
@@ -12006,12 +12018,12 @@
         <v>602</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
         <v>805</v>
       </c>
       <c r="B170" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C170" t="s">
         <v>151</v>
@@ -12029,12 +12041,12 @@
         <v>667</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
         <v>806</v>
       </c>
       <c r="B171" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C171" t="s">
         <v>189</v>
@@ -12052,12 +12064,12 @@
         <v>807</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
         <v>808</v>
       </c>
       <c r="B172" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C172" t="s">
         <v>117</v>
@@ -12072,15 +12084,15 @@
         <v>292.16000000000003</v>
       </c>
       <c r="G172" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>809</v>
       </c>
       <c r="B173" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C173" t="s">
         <v>83</v>
@@ -12098,12 +12110,12 @@
         <v>810</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>811</v>
       </c>
       <c r="B174" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C174" t="s">
         <v>121</v>
@@ -12121,12 +12133,12 @@
         <v>812</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>813</v>
       </c>
       <c r="B175" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C175" t="s">
         <v>249</v>
@@ -12141,15 +12153,15 @@
         <v>420.42</v>
       </c>
       <c r="G175" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>814</v>
       </c>
       <c r="B176" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C176" t="s">
         <v>163</v>
@@ -12167,12 +12179,12 @@
         <v>807</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>815</v>
       </c>
       <c r="B177" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C177" t="s">
         <v>149</v>
@@ -12190,12 +12202,12 @@
         <v>683</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>816</v>
       </c>
       <c r="B178" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C178" t="s">
         <v>75</v>
@@ -12213,12 +12225,12 @@
         <v>817</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
         <v>818</v>
       </c>
       <c r="B179" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C179" t="s">
         <v>257</v>
@@ -12236,12 +12248,12 @@
         <v>740</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>819</v>
       </c>
       <c r="B180" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C180" t="s">
         <v>171</v>
@@ -12259,12 +12271,12 @@
         <v>820</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>821</v>
       </c>
       <c r="B181" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C181" t="s">
         <v>115</v>
@@ -12282,12 +12294,12 @@
         <v>822</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>823</v>
       </c>
       <c r="B182" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C182" t="s">
         <v>149</v>
@@ -12305,12 +12317,12 @@
         <v>824</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>825</v>
       </c>
       <c r="B183" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C183" t="s">
         <v>119</v>
@@ -12328,12 +12340,12 @@
         <v>826</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
         <v>827</v>
       </c>
       <c r="B184" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C184" t="s">
         <v>107</v>
@@ -12351,12 +12363,12 @@
         <v>828</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
         <v>829</v>
       </c>
       <c r="B185" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C185" t="s">
         <v>245</v>
@@ -12371,15 +12383,15 @@
         <v>76.48</v>
       </c>
       <c r="G185" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>830</v>
       </c>
       <c r="B186" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C186" t="s">
         <v>211</v>
@@ -12397,12 +12409,12 @@
         <v>729</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>831</v>
       </c>
       <c r="B187" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C187" t="s">
         <v>235</v>
@@ -12420,12 +12432,12 @@
         <v>832</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>833</v>
       </c>
       <c r="B188" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C188" t="s">
         <v>147</v>
@@ -12440,15 +12452,15 @@
         <v>172.32</v>
       </c>
       <c r="G188" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>834</v>
       </c>
       <c r="B189" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C189" t="s">
         <v>211</v>
@@ -12466,12 +12478,12 @@
         <v>777</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
         <v>835</v>
       </c>
       <c r="B190" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C190" t="s">
         <v>145</v>
@@ -12489,12 +12501,12 @@
         <v>836</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>837</v>
       </c>
       <c r="B191" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C191" t="s">
         <v>227</v>
@@ -12512,12 +12524,12 @@
         <v>561</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
         <v>838</v>
       </c>
       <c r="B192" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C192" t="s">
         <v>119</v>
@@ -12535,12 +12547,12 @@
         <v>839</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>840</v>
       </c>
       <c r="B193" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C193" t="s">
         <v>205</v>
@@ -12558,12 +12570,12 @@
         <v>841</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
         <v>842</v>
       </c>
       <c r="B194" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C194" t="s">
         <v>165</v>
@@ -12581,12 +12593,12 @@
         <v>843</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7">
       <c r="A195" t="s">
         <v>844</v>
       </c>
       <c r="B195" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C195" t="s">
         <v>147</v>
@@ -12604,12 +12616,12 @@
         <v>740</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7">
       <c r="A196" t="s">
         <v>845</v>
       </c>
       <c r="B196" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C196" t="s">
         <v>113</v>
@@ -12627,12 +12639,12 @@
         <v>846</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
         <v>847</v>
       </c>
       <c r="B197" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C197" t="s">
         <v>215</v>
@@ -12650,12 +12662,12 @@
         <v>848</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
         <v>849</v>
       </c>
       <c r="B198" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C198" t="s">
         <v>191</v>
@@ -12670,15 +12682,15 @@
         <v>334</v>
       </c>
       <c r="G198" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
         <v>850</v>
       </c>
       <c r="B199" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C199" t="s">
         <v>169</v>
@@ -12696,12 +12708,12 @@
         <v>851</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
         <v>852</v>
       </c>
       <c r="B200" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C200" t="s">
         <v>149</v>
@@ -12719,12 +12731,12 @@
         <v>853</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7">
       <c r="A201" t="s">
         <v>854</v>
       </c>
       <c r="B201" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C201" t="s">
         <v>85</v>
@@ -12742,12 +12754,12 @@
         <v>855</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
         <v>856</v>
       </c>
       <c r="B202" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C202" t="s">
         <v>93</v>
@@ -12765,12 +12777,12 @@
         <v>782</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
         <v>857</v>
       </c>
       <c r="B203" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C203" t="s">
         <v>159</v>
@@ -12788,12 +12800,12 @@
         <v>858</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7">
       <c r="A204" t="s">
         <v>859</v>
       </c>
       <c r="B204" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C204" t="s">
         <v>167</v>
@@ -12811,12 +12823,12 @@
         <v>860</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7">
       <c r="A205" t="s">
         <v>861</v>
       </c>
       <c r="B205" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C205" t="s">
         <v>245</v>
@@ -12831,15 +12843,15 @@
         <v>330.12</v>
       </c>
       <c r="G205" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206" t="s">
         <v>862</v>
       </c>
       <c r="B206" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C206" t="s">
         <v>191</v>
@@ -12857,12 +12869,12 @@
         <v>794</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7">
       <c r="A207" t="s">
         <v>863</v>
       </c>
       <c r="B207" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C207" t="s">
         <v>171</v>
@@ -12880,12 +12892,12 @@
         <v>864</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7">
       <c r="A208" t="s">
         <v>865</v>
       </c>
       <c r="B208" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C208" t="s">
         <v>113</v>
@@ -12903,12 +12915,12 @@
         <v>866</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
         <v>867</v>
       </c>
       <c r="B209" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C209" t="s">
         <v>183</v>
@@ -12923,15 +12935,15 @@
         <v>443.7</v>
       </c>
       <c r="G209" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210" t="s">
         <v>868</v>
       </c>
       <c r="B210" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C210" t="s">
         <v>221</v>
@@ -12949,12 +12961,12 @@
         <v>869</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7">
       <c r="A211" t="s">
         <v>870</v>
       </c>
       <c r="B211" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C211" t="s">
         <v>221</v>
@@ -12972,12 +12984,12 @@
         <v>843</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7">
       <c r="A212" t="s">
         <v>871</v>
       </c>
       <c r="B212" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C212" t="s">
         <v>129</v>
@@ -12995,12 +13007,12 @@
         <v>872</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7">
       <c r="A213" t="s">
         <v>873</v>
       </c>
       <c r="B213" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C213" t="s">
         <v>121</v>
@@ -13018,12 +13030,12 @@
         <v>643</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7">
       <c r="A214" t="s">
         <v>874</v>
       </c>
       <c r="B214" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -13041,12 +13053,12 @@
         <v>875</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7">
       <c r="A215" t="s">
         <v>876</v>
       </c>
       <c r="B215" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C215" t="s">
         <v>181</v>
@@ -13064,12 +13076,12 @@
         <v>839</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7">
       <c r="A216" t="s">
         <v>877</v>
       </c>
       <c r="B216" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C216" t="s">
         <v>245</v>
@@ -13087,12 +13099,12 @@
         <v>878</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7">
       <c r="A217" t="s">
         <v>879</v>
       </c>
       <c r="B217" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C217" t="s">
         <v>235</v>
@@ -13110,12 +13122,12 @@
         <v>780</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7">
       <c r="A218" t="s">
         <v>880</v>
       </c>
       <c r="B218" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C218" t="s">
         <v>271</v>
@@ -13133,12 +13145,12 @@
         <v>881</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7">
       <c r="A219" t="s">
         <v>882</v>
       </c>
       <c r="B219" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C219" t="s">
         <v>119</v>
@@ -13156,12 +13168,12 @@
         <v>567</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7">
       <c r="A220" t="s">
         <v>883</v>
       </c>
       <c r="B220" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C220" t="s">
         <v>111</v>
@@ -13179,12 +13191,12 @@
         <v>751</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7">
       <c r="A221" t="s">
         <v>884</v>
       </c>
       <c r="B221" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C221" t="s">
         <v>159</v>
@@ -13202,12 +13214,12 @@
         <v>853</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7">
       <c r="A222" t="s">
         <v>885</v>
       </c>
       <c r="B222" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C222" t="s">
         <v>161</v>
@@ -13225,12 +13237,12 @@
         <v>751</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7">
       <c r="A223" t="s">
         <v>886</v>
       </c>
       <c r="B223" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C223" t="s">
         <v>97</v>
@@ -13248,12 +13260,12 @@
         <v>887</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7">
       <c r="A224" t="s">
         <v>888</v>
       </c>
       <c r="B224" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C224" t="s">
         <v>269</v>
@@ -13271,12 +13283,12 @@
         <v>798</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7">
       <c r="A225" t="s">
         <v>889</v>
       </c>
       <c r="B225" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C225" t="s">
         <v>187</v>
@@ -13294,12 +13306,12 @@
         <v>890</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7">
       <c r="A226" t="s">
         <v>891</v>
       </c>
       <c r="B226" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C226" t="s">
         <v>121</v>
@@ -13317,12 +13329,12 @@
         <v>569</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7">
       <c r="A227" t="s">
         <v>892</v>
       </c>
       <c r="B227" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C227" t="s">
         <v>143</v>
@@ -13340,12 +13352,12 @@
         <v>878</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7">
       <c r="A228" t="s">
         <v>893</v>
       </c>
       <c r="B228" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C228" t="s">
         <v>123</v>
@@ -13363,12 +13375,12 @@
         <v>894</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7">
       <c r="A229" t="s">
         <v>895</v>
       </c>
       <c r="B229" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C229" t="s">
         <v>161</v>
@@ -13386,12 +13398,12 @@
         <v>725</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7">
       <c r="A230" t="s">
         <v>896</v>
       </c>
       <c r="B230" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C230" t="s">
         <v>123</v>
@@ -13409,12 +13421,12 @@
         <v>532</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7">
       <c r="A231" t="s">
         <v>897</v>
       </c>
       <c r="B231" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C231" t="s">
         <v>213</v>
@@ -13432,12 +13444,12 @@
         <v>798</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7">
       <c r="A232" t="s">
         <v>898</v>
       </c>
       <c r="B232" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C232" t="s">
         <v>133</v>
@@ -13455,12 +13467,12 @@
         <v>685</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7">
       <c r="A233" t="s">
         <v>899</v>
       </c>
       <c r="B233" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C233" t="s">
         <v>187</v>
@@ -13478,12 +13490,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7">
       <c r="A234" t="s">
         <v>901</v>
       </c>
       <c r="B234" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C234" t="s">
         <v>127</v>
@@ -13501,12 +13513,12 @@
         <v>902</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7">
       <c r="A235" t="s">
         <v>903</v>
       </c>
       <c r="B235" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C235" t="s">
         <v>155</v>
@@ -13524,12 +13536,12 @@
         <v>699</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7">
       <c r="A236" t="s">
         <v>904</v>
       </c>
       <c r="B236" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C236" t="s">
         <v>117</v>
@@ -13547,12 +13559,12 @@
         <v>532</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7">
       <c r="A237" t="s">
         <v>905</v>
       </c>
       <c r="B237" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C237" t="s">
         <v>203</v>
@@ -13570,12 +13582,12 @@
         <v>906</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7">
       <c r="A238" t="s">
         <v>907</v>
       </c>
       <c r="B238" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C238" t="s">
         <v>261</v>
@@ -13593,12 +13605,12 @@
         <v>908</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7">
       <c r="A239" t="s">
         <v>909</v>
       </c>
       <c r="B239" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C239" t="s">
         <v>101</v>
@@ -13616,12 +13628,12 @@
         <v>910</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7">
       <c r="A240" t="s">
         <v>911</v>
       </c>
       <c r="B240" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C240" t="s">
         <v>235</v>
@@ -13639,12 +13651,12 @@
         <v>657</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7">
       <c r="A241" t="s">
         <v>912</v>
       </c>
       <c r="B241" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C241" t="s">
         <v>233</v>
@@ -13662,12 +13674,12 @@
         <v>913</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7">
       <c r="A242" t="s">
         <v>914</v>
       </c>
       <c r="B242" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C242" t="s">
         <v>89</v>
@@ -13682,15 +13694,15 @@
         <v>73.040000000000006</v>
       </c>
       <c r="G242" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243" t="s">
         <v>915</v>
       </c>
       <c r="B243" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C243" t="s">
         <v>169</v>
@@ -13705,15 +13717,15 @@
         <v>464.52</v>
       </c>
       <c r="G243" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244" t="s">
         <v>916</v>
       </c>
       <c r="B244" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C244" t="s">
         <v>217</v>
@@ -13731,12 +13743,12 @@
         <v>702</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7">
       <c r="A245" t="s">
         <v>917</v>
       </c>
       <c r="B245" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C245" t="s">
         <v>99</v>
@@ -13754,12 +13766,12 @@
         <v>798</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7">
       <c r="A246" t="s">
         <v>918</v>
       </c>
       <c r="B246" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C246" t="s">
         <v>123</v>
@@ -13777,12 +13789,12 @@
         <v>919</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7">
       <c r="A247" t="s">
         <v>920</v>
       </c>
       <c r="B247" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C247" t="s">
         <v>163</v>
@@ -13800,12 +13812,12 @@
         <v>661</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7">
       <c r="A248" t="s">
         <v>921</v>
       </c>
       <c r="B248" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C248" t="s">
         <v>81</v>
@@ -13823,12 +13835,12 @@
         <v>922</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7">
       <c r="A249" t="s">
         <v>923</v>
       </c>
       <c r="B249" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C249" t="s">
         <v>225</v>
@@ -13846,12 +13858,12 @@
         <v>836</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7">
       <c r="A250" t="s">
         <v>924</v>
       </c>
       <c r="B250" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C250" t="s">
         <v>103</v>
@@ -13869,12 +13881,12 @@
         <v>925</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7">
       <c r="A251" t="s">
         <v>926</v>
       </c>
       <c r="B251" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C251" t="s">
         <v>125</v>
@@ -13905,9 +13917,9 @@
       <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>927</v>
       </c>
@@ -13924,7 +13936,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>931</v>
       </c>
@@ -13941,7 +13953,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>935</v>
       </c>
@@ -13958,7 +13970,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>938</v>
       </c>
@@ -13966,7 +13978,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D4" t="s">
         <v>939</v>
@@ -13975,7 +13987,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>941</v>
       </c>
@@ -13992,7 +14004,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>944</v>
       </c>
@@ -14009,7 +14021,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>948</v>
       </c>
@@ -14017,7 +14029,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D7" t="s">
         <v>939</v>
@@ -14026,7 +14038,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>950</v>
       </c>
@@ -14043,7 +14055,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>953</v>
       </c>
@@ -14060,7 +14072,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>956</v>
       </c>
@@ -14077,7 +14089,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>959</v>
       </c>
@@ -14094,7 +14106,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>961</v>
       </c>
@@ -14111,7 +14123,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>963</v>
       </c>
@@ -14128,7 +14140,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>966</v>
       </c>
@@ -14136,7 +14148,7 @@
         <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D14" t="s">
         <v>933</v>
@@ -14145,7 +14157,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>968</v>
       </c>
@@ -14162,7 +14174,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>971</v>
       </c>
@@ -14179,7 +14191,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>973</v>
       </c>
@@ -14196,7 +14208,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>976</v>
       </c>
@@ -14213,7 +14225,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>979</v>
       </c>
@@ -14230,7 +14242,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>981</v>
       </c>
@@ -14247,7 +14259,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>983</v>
       </c>
@@ -14264,7 +14276,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>985</v>
       </c>
@@ -14281,7 +14293,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>987</v>
       </c>
@@ -14298,7 +14310,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>989</v>
       </c>
@@ -14315,7 +14327,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>992</v>
       </c>
@@ -14332,7 +14344,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>995</v>
       </c>
@@ -14349,7 +14361,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>997</v>
       </c>
@@ -14366,7 +14378,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>999</v>
       </c>
@@ -14383,7 +14395,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>1001</v>
       </c>
@@ -14400,7 +14412,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>1004</v>
       </c>
@@ -14417,7 +14429,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>1006</v>
       </c>
@@ -14434,7 +14446,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>1008</v>
       </c>
@@ -14451,7 +14463,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>1011</v>
       </c>
@@ -14468,7 +14480,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>1014</v>
       </c>
@@ -14485,7 +14497,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>1016</v>
       </c>
@@ -14502,7 +14514,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>1018</v>
       </c>
@@ -14519,7 +14531,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>1021</v>
       </c>
@@ -14536,7 +14548,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>1023</v>
       </c>
@@ -14553,7 +14565,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>1025</v>
       </c>
@@ -14570,7 +14582,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>1027</v>
       </c>
@@ -14587,7 +14599,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>1029</v>
       </c>
@@ -14604,7 +14616,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>1032</v>
       </c>
@@ -14612,7 +14624,7 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D42" t="s">
         <v>939</v>
@@ -14621,7 +14633,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>1034</v>
       </c>
@@ -14638,7 +14650,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>1036</v>
       </c>
@@ -14655,7 +14667,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>1038</v>
       </c>
@@ -14672,7 +14684,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>1041</v>
       </c>
@@ -14689,7 +14701,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>1043</v>
       </c>
@@ -14706,7 +14718,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>1045</v>
       </c>
@@ -14723,7 +14735,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>1047</v>
       </c>
@@ -14740,7 +14752,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>1049</v>
       </c>
@@ -14757,7 +14769,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>1052</v>
       </c>
